--- a/app/mock_data_all_sheets_1.xlsx
+++ b/app/mock_data_all_sheets_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="236">
   <si>
     <t>Org</t>
   </si>
@@ -721,7 +721,10 @@
     <t>Count</t>
   </si>
   <si>
-    <t>['None']</t>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -27777,13 +27780,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>231</v>
       </c>
@@ -27793,434 +27796,554 @@
       <c r="C1" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>121</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>126</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>139</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>140</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C40">
         <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
